--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="H2">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="I2">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="J2">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.28800748622399</v>
+        <v>2.296259</v>
       </c>
       <c r="N2">
-        <v>2.28800748622399</v>
+        <v>4.592518</v>
       </c>
       <c r="O2">
-        <v>0.2517202116687207</v>
+        <v>0.2429335573373846</v>
       </c>
       <c r="P2">
-        <v>0.2517202116687207</v>
+        <v>0.1825565432142737</v>
       </c>
       <c r="Q2">
-        <v>13.72941695720796</v>
+        <v>13.793159376164</v>
       </c>
       <c r="R2">
-        <v>13.72941695720796</v>
+        <v>55.172637504656</v>
       </c>
       <c r="S2">
-        <v>0.03111091234577613</v>
+        <v>0.02848460670252884</v>
       </c>
       <c r="T2">
-        <v>0.03111091234577613</v>
+        <v>0.01500610331752248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="H3">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="I3">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="J3">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.21326423436801</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="N3">
-        <v>2.21326423436801</v>
+        <v>0.619327</v>
       </c>
       <c r="O3">
-        <v>0.2434971672550654</v>
+        <v>0.02184064185342193</v>
       </c>
       <c r="P3">
-        <v>0.2434971672550654</v>
+        <v>0.02461878129585261</v>
       </c>
       <c r="Q3">
-        <v>13.28091262509937</v>
+        <v>1.240056982097333</v>
       </c>
       <c r="R3">
-        <v>13.28091262509937</v>
+        <v>7.440341892583999</v>
       </c>
       <c r="S3">
-        <v>0.03009459978083463</v>
+        <v>0.002560873434465519</v>
       </c>
       <c r="T3">
-        <v>0.03009459978083463</v>
+        <v>0.002023657816764408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="H4">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="I4">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="J4">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.4645147047407</v>
+        <v>2.229286333333333</v>
       </c>
       <c r="N4">
-        <v>2.4645147047407</v>
+        <v>6.687859</v>
       </c>
       <c r="O4">
-        <v>0.271139044287756</v>
+        <v>0.2358481596720061</v>
       </c>
       <c r="P4">
-        <v>0.271139044287756</v>
+        <v>0.2658481513941739</v>
       </c>
       <c r="Q4">
-        <v>14.7885661136525</v>
+        <v>13.39086822992133</v>
       </c>
       <c r="R4">
-        <v>14.7885661136525</v>
+        <v>80.34520937952799</v>
       </c>
       <c r="S4">
-        <v>0.03351094846311099</v>
+        <v>0.02765382495281351</v>
       </c>
       <c r="T4">
-        <v>0.03351094846311099</v>
+        <v>0.02185265319091239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="H5">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="I5">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="J5">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22022040128185</v>
+        <v>2.528492</v>
       </c>
       <c r="N5">
-        <v>1.22022040128185</v>
+        <v>7.585476</v>
       </c>
       <c r="O5">
-        <v>0.1342452503073187</v>
+        <v>0.267502732165282</v>
       </c>
       <c r="P5">
-        <v>0.1342452503073187</v>
+        <v>0.3015291997102321</v>
       </c>
       <c r="Q5">
-        <v>7.322054132147219</v>
+        <v>15.188135631632</v>
       </c>
       <c r="R5">
-        <v>7.322054132147219</v>
+        <v>91.12881378979199</v>
       </c>
       <c r="S5">
-        <v>0.01659180320666618</v>
+        <v>0.03136540789627414</v>
       </c>
       <c r="T5">
-        <v>0.01659180320666618</v>
+        <v>0.02478562665809632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="H6">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="I6">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="J6">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.903479754761555</v>
+        <v>1.288047333333333</v>
       </c>
       <c r="N6">
-        <v>0.903479754761555</v>
+        <v>3.864142</v>
       </c>
       <c r="O6">
-        <v>0.0993983264811391</v>
+        <v>0.1362694368124844</v>
       </c>
       <c r="P6">
-        <v>0.0993983264811391</v>
+        <v>0.1536029703115132</v>
       </c>
       <c r="Q6">
-        <v>5.421420314488884</v>
+        <v>7.737037569677333</v>
       </c>
       <c r="R6">
-        <v>5.421420314488884</v>
+        <v>46.422225418064</v>
       </c>
       <c r="S6">
-        <v>0.01228495956670062</v>
+        <v>0.0159779544486232</v>
       </c>
       <c r="T6">
-        <v>0.01228495956670062</v>
+        <v>0.01262612668814319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.71296791181461</v>
+        <v>6.006796</v>
       </c>
       <c r="H7">
-        <v>1.71296791181461</v>
+        <v>12.013592</v>
       </c>
       <c r="I7">
-        <v>0.03528167808710248</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="J7">
-        <v>0.03528167808710248</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.28800748622399</v>
+        <v>0.903683</v>
       </c>
       <c r="N7">
-        <v>2.28800748622399</v>
+        <v>1.807366</v>
       </c>
       <c r="O7">
-        <v>0.2517202116687207</v>
+        <v>0.09560547215942092</v>
       </c>
       <c r="P7">
-        <v>0.2517202116687207</v>
+        <v>0.0718443540739544</v>
       </c>
       <c r="Q7">
-        <v>3.919283405893303</v>
+        <v>5.428239429667999</v>
       </c>
       <c r="R7">
-        <v>3.919283405893303</v>
+        <v>21.712957718672</v>
       </c>
       <c r="S7">
-        <v>0.008881111476113103</v>
+        <v>0.01120999627601301</v>
       </c>
       <c r="T7">
-        <v>0.008881111476113103</v>
+        <v>0.00590558837844018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="H8">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="I8">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="J8">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.21326423436801</v>
+        <v>2.296259</v>
       </c>
       <c r="N8">
-        <v>2.21326423436801</v>
+        <v>4.592518</v>
       </c>
       <c r="O8">
-        <v>0.2434971672550654</v>
+        <v>0.2429335573373846</v>
       </c>
       <c r="P8">
-        <v>0.2434971672550654</v>
+        <v>0.1825565432142737</v>
       </c>
       <c r="Q8">
-        <v>3.791250613839332</v>
+        <v>4.397082631090333</v>
       </c>
       <c r="R8">
-        <v>3.791250613839332</v>
+        <v>26.382495786542</v>
       </c>
       <c r="S8">
-        <v>0.008590988670214569</v>
+        <v>0.009080527960952319</v>
       </c>
       <c r="T8">
-        <v>0.008590988670214569</v>
+        <v>0.007175630447493854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="H9">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="I9">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="J9">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.4645147047407</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="N9">
-        <v>2.4645147047407</v>
+        <v>0.619327</v>
       </c>
       <c r="O9">
-        <v>0.271139044287756</v>
+        <v>0.02184064185342193</v>
       </c>
       <c r="P9">
-        <v>0.271139044287756</v>
+        <v>0.02461878129585261</v>
       </c>
       <c r="Q9">
-        <v>4.221634607416076</v>
+        <v>0.3953142908625555</v>
       </c>
       <c r="R9">
-        <v>4.221634607416076</v>
+        <v>3.557828617763</v>
       </c>
       <c r="S9">
-        <v>0.009566240477405232</v>
+        <v>0.0008163736669764047</v>
       </c>
       <c r="T9">
-        <v>0.009566240477405232</v>
+        <v>0.0009676743081148566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="H10">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="I10">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="J10">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.22022040128185</v>
+        <v>2.229286333333333</v>
       </c>
       <c r="N10">
-        <v>1.22022040128185</v>
+        <v>6.687859</v>
       </c>
       <c r="O10">
-        <v>0.1342452503073187</v>
+        <v>0.2358481596720061</v>
       </c>
       <c r="P10">
-        <v>0.1342452503073187</v>
+        <v>0.2658481513941739</v>
       </c>
       <c r="Q10">
-        <v>2.090198392737356</v>
+        <v>4.268837363741222</v>
       </c>
       <c r="R10">
-        <v>2.090198392737356</v>
+        <v>38.419536273671</v>
       </c>
       <c r="S10">
-        <v>0.004736397706065315</v>
+        <v>0.008815685374690834</v>
       </c>
       <c r="T10">
-        <v>0.004736397706065315</v>
+        <v>0.01044951912413752</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="H11">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="I11">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="J11">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.903479754761555</v>
+        <v>2.528492</v>
       </c>
       <c r="N11">
-        <v>0.903479754761555</v>
+        <v>7.585476</v>
       </c>
       <c r="O11">
-        <v>0.0993983264811391</v>
+        <v>0.267502732165282</v>
       </c>
       <c r="P11">
-        <v>0.0993983264811391</v>
+        <v>0.3015291997102321</v>
       </c>
       <c r="Q11">
-        <v>1.547631828880677</v>
+        <v>4.841783203049333</v>
       </c>
       <c r="R11">
-        <v>1.547631828880677</v>
+        <v>43.576048827444</v>
       </c>
       <c r="S11">
-        <v>0.003506939757304264</v>
+        <v>0.009998890501918229</v>
       </c>
       <c r="T11">
-        <v>0.003506939757304264</v>
+        <v>0.01185201071489189</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.0216035009788</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="H12">
-        <v>12.0216035009788</v>
+        <v>5.744669</v>
       </c>
       <c r="I12">
-        <v>0.2476067075669904</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="J12">
-        <v>0.2476067075669904</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.28800748622399</v>
+        <v>1.288047333333333</v>
       </c>
       <c r="N12">
-        <v>2.28800748622399</v>
+        <v>3.864142</v>
       </c>
       <c r="O12">
-        <v>0.2517202116687207</v>
+        <v>0.1362694368124844</v>
       </c>
       <c r="P12">
-        <v>0.2517202116687207</v>
+        <v>0.1536029703115132</v>
       </c>
       <c r="Q12">
-        <v>27.50551880665602</v>
+        <v>2.466468528777555</v>
       </c>
       <c r="R12">
-        <v>27.50551880665602</v>
+        <v>22.198216758998</v>
       </c>
       <c r="S12">
-        <v>0.06232761283935784</v>
+        <v>0.005093567330759903</v>
       </c>
       <c r="T12">
-        <v>0.06232761283935784</v>
+        <v>0.006037571325499387</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.0216035009788</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="H13">
-        <v>12.0216035009788</v>
+        <v>5.744669</v>
       </c>
       <c r="I13">
-        <v>0.2476067075669904</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="J13">
-        <v>0.2476067075669904</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.21326423436801</v>
+        <v>0.903683</v>
       </c>
       <c r="N13">
-        <v>2.21326423436801</v>
+        <v>1.807366</v>
       </c>
       <c r="O13">
-        <v>0.2434971672550654</v>
+        <v>0.09560547215942092</v>
       </c>
       <c r="P13">
-        <v>0.2434971672550654</v>
+        <v>0.0718443540739544</v>
       </c>
       <c r="Q13">
-        <v>26.60698506846963</v>
+        <v>1.730453238642333</v>
       </c>
       <c r="R13">
-        <v>26.60698506846963</v>
+        <v>10.382719431854</v>
       </c>
       <c r="S13">
-        <v>0.06029153188591551</v>
+        <v>0.003573603304042477</v>
       </c>
       <c r="T13">
-        <v>0.06029153188591551</v>
+        <v>0.002823938958838087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.0216035009788</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="H14">
-        <v>12.0216035009788</v>
+        <v>42.783134</v>
       </c>
       <c r="I14">
-        <v>0.2476067075669904</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="J14">
-        <v>0.2476067075669904</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.4645147047407</v>
+        <v>2.296259</v>
       </c>
       <c r="N14">
-        <v>2.4645147047407</v>
+        <v>4.592518</v>
       </c>
       <c r="O14">
-        <v>0.271139044287756</v>
+        <v>0.2429335573373846</v>
       </c>
       <c r="P14">
-        <v>0.271139044287756</v>
+        <v>0.1825565432142737</v>
       </c>
       <c r="Q14">
-        <v>29.62741860272453</v>
+        <v>32.74705216523533</v>
       </c>
       <c r="R14">
-        <v>29.62741860272453</v>
+        <v>196.482312991412</v>
       </c>
       <c r="S14">
-        <v>0.06713584604895166</v>
+        <v>0.06762677615440851</v>
       </c>
       <c r="T14">
-        <v>0.06713584604895166</v>
+        <v>0.05344014754716233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.0216035009788</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="H15">
-        <v>12.0216035009788</v>
+        <v>42.783134</v>
       </c>
       <c r="I15">
-        <v>0.2476067075669904</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="J15">
-        <v>0.2476067075669904</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.22022040128185</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="N15">
-        <v>1.22022040128185</v>
+        <v>0.619327</v>
       </c>
       <c r="O15">
-        <v>0.1342452503073187</v>
+        <v>0.02184064185342193</v>
       </c>
       <c r="P15">
-        <v>0.1342452503073187</v>
+        <v>0.02461878129585261</v>
       </c>
       <c r="Q15">
-        <v>14.66900584801565</v>
+        <v>2.944083336757555</v>
       </c>
       <c r="R15">
-        <v>14.66900584801565</v>
+        <v>26.496750030818</v>
       </c>
       <c r="S15">
-        <v>0.03324002443510169</v>
+        <v>0.006079901903542727</v>
       </c>
       <c r="T15">
-        <v>0.03324002443510169</v>
+        <v>0.00720670583325779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.0216035009788</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="H16">
-        <v>12.0216035009788</v>
+        <v>42.783134</v>
       </c>
       <c r="I16">
-        <v>0.2476067075669904</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="J16">
-        <v>0.2476067075669904</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.903479754761555</v>
+        <v>2.229286333333333</v>
       </c>
       <c r="N16">
-        <v>0.903479754761555</v>
+        <v>6.687859</v>
       </c>
       <c r="O16">
-        <v>0.0993983264811391</v>
+        <v>0.2358481596720061</v>
       </c>
       <c r="P16">
-        <v>0.0993983264811391</v>
+        <v>0.2658481513941739</v>
       </c>
       <c r="Q16">
-        <v>10.86127538290498</v>
+        <v>31.79195197445621</v>
       </c>
       <c r="R16">
-        <v>10.86127538290498</v>
+        <v>286.1275677701059</v>
       </c>
       <c r="S16">
-        <v>0.02461169235766364</v>
+        <v>0.06565437428809878</v>
       </c>
       <c r="T16">
-        <v>0.02461169235766364</v>
+        <v>0.07782226912003774</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.3856550947891</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="H17">
-        <v>23.3856550947891</v>
+        <v>42.783134</v>
       </c>
       <c r="I17">
-        <v>0.4816699421043527</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="J17">
-        <v>0.4816699421043527</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.28800748622399</v>
+        <v>2.528492</v>
       </c>
       <c r="N17">
-        <v>2.28800748622399</v>
+        <v>7.585476</v>
       </c>
       <c r="O17">
-        <v>0.2517202116687207</v>
+        <v>0.267502732165282</v>
       </c>
       <c r="P17">
-        <v>0.2517202116687207</v>
+        <v>0.3015291997102321</v>
       </c>
       <c r="Q17">
-        <v>53.50655392712965</v>
+        <v>36.05893735130933</v>
       </c>
       <c r="R17">
-        <v>53.50655392712965</v>
+        <v>324.530436161784</v>
       </c>
       <c r="S17">
-        <v>0.1212460597809681</v>
+        <v>0.07446623507723332</v>
       </c>
       <c r="T17">
-        <v>0.1212460597809681</v>
+        <v>0.08826725483829539</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.3856550947891</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="H18">
-        <v>23.3856550947891</v>
+        <v>42.783134</v>
       </c>
       <c r="I18">
-        <v>0.4816699421043527</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="J18">
-        <v>0.4816699421043527</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.21326423436801</v>
+        <v>1.288047333333333</v>
       </c>
       <c r="N18">
-        <v>2.21326423436801</v>
+        <v>3.864142</v>
       </c>
       <c r="O18">
-        <v>0.2434971672550654</v>
+        <v>0.1362694368124844</v>
       </c>
       <c r="P18">
-        <v>0.2434971672550654</v>
+        <v>0.1536029703115132</v>
       </c>
       <c r="Q18">
-        <v>51.75863401856275</v>
+        <v>18.36890055344755</v>
       </c>
       <c r="R18">
-        <v>51.75863401856275</v>
+        <v>165.320104981028</v>
       </c>
       <c r="S18">
-        <v>0.1172852664543212</v>
+        <v>0.03793408700308464</v>
       </c>
       <c r="T18">
-        <v>0.1172852664543212</v>
+        <v>0.04496450936570896</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.3856550947891</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="H19">
-        <v>23.3856550947891</v>
+        <v>42.783134</v>
       </c>
       <c r="I19">
-        <v>0.4816699421043527</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="J19">
-        <v>0.4816699421043527</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.4645147047407</v>
+        <v>0.903683</v>
       </c>
       <c r="N19">
-        <v>2.4645147047407</v>
+        <v>1.807366</v>
       </c>
       <c r="O19">
-        <v>0.271139044287756</v>
+        <v>0.09560547215942092</v>
       </c>
       <c r="P19">
-        <v>0.271139044287756</v>
+        <v>0.0718443540739544</v>
       </c>
       <c r="Q19">
-        <v>57.634290861102</v>
+        <v>12.88746362750733</v>
       </c>
       <c r="R19">
-        <v>57.634290861102</v>
+        <v>77.32478176504399</v>
       </c>
       <c r="S19">
-        <v>0.130599527764313</v>
+        <v>0.02661423121500857</v>
       </c>
       <c r="T19">
-        <v>0.130599527764313</v>
+        <v>0.02103114363661168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.3856550947891</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="H20">
-        <v>23.3856550947891</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="I20">
-        <v>0.4816699421043527</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="J20">
-        <v>0.4816699421043527</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.22022040128185</v>
+        <v>2.296259</v>
       </c>
       <c r="N20">
-        <v>1.22022040128185</v>
+        <v>4.592518</v>
       </c>
       <c r="O20">
-        <v>0.1342452503073187</v>
+        <v>0.2429335573373846</v>
       </c>
       <c r="P20">
-        <v>0.1342452503073187</v>
+        <v>0.1825565432142737</v>
       </c>
       <c r="Q20">
-        <v>28.5356534440025</v>
+        <v>54.02958120620666</v>
       </c>
       <c r="R20">
-        <v>28.5356534440025</v>
+        <v>324.17748723724</v>
       </c>
       <c r="S20">
-        <v>0.06466190194331055</v>
+        <v>0.1115778719718639</v>
       </c>
       <c r="T20">
-        <v>0.06466190194331055</v>
+        <v>0.08817125819454118</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.3856550947891</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="H21">
-        <v>23.3856550947891</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="I21">
-        <v>0.4816699421043527</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="J21">
-        <v>0.4816699421043527</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.903479754761555</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="N21">
-        <v>0.903479754761555</v>
+        <v>0.619327</v>
       </c>
       <c r="O21">
-        <v>0.0993983264811391</v>
+        <v>0.02184064185342193</v>
       </c>
       <c r="P21">
-        <v>0.0993983264811391</v>
+        <v>0.02461878129585261</v>
       </c>
       <c r="Q21">
-        <v>21.12846592997836</v>
+        <v>4.85746286165111</v>
       </c>
       <c r="R21">
-        <v>21.12846592997836</v>
+        <v>43.71716575485999</v>
       </c>
       <c r="S21">
-        <v>0.04787718616143982</v>
+        <v>0.01003127096648919</v>
       </c>
       <c r="T21">
-        <v>0.04787718616143982</v>
+        <v>0.01189039233463006</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.93949277786609</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="H22">
-        <v>3.93949277786609</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="I22">
-        <v>0.08114099222553287</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="J22">
-        <v>0.08114099222553287</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.28800748622399</v>
+        <v>2.229286333333333</v>
       </c>
       <c r="N22">
-        <v>2.28800748622399</v>
+        <v>6.687859</v>
       </c>
       <c r="O22">
-        <v>0.2517202116687207</v>
+        <v>0.2358481596720061</v>
       </c>
       <c r="P22">
-        <v>0.2517202116687207</v>
+        <v>0.2658481513941739</v>
       </c>
       <c r="Q22">
-        <v>9.013588967682956</v>
+        <v>52.45375498962444</v>
       </c>
       <c r="R22">
-        <v>9.013588967682956</v>
+        <v>472.0837949066199</v>
       </c>
       <c r="S22">
-        <v>0.02042482773802115</v>
+        <v>0.1083235928914345</v>
       </c>
       <c r="T22">
-        <v>0.02042482773802115</v>
+        <v>0.1283994842606357</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.93949277786609</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="H23">
-        <v>3.93949277786609</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="I23">
-        <v>0.08114099222553287</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="J23">
-        <v>0.08114099222553287</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.21326423436801</v>
+        <v>2.528492</v>
       </c>
       <c r="N23">
-        <v>2.21326423436801</v>
+        <v>7.585476</v>
       </c>
       <c r="O23">
-        <v>0.2434971672550654</v>
+        <v>0.267502732165282</v>
       </c>
       <c r="P23">
-        <v>0.2434971672550654</v>
+        <v>0.3015291997102321</v>
       </c>
       <c r="Q23">
-        <v>8.719138466802097</v>
+        <v>59.49388280818666</v>
       </c>
       <c r="R23">
-        <v>8.719138466802097</v>
+        <v>535.44494527368</v>
       </c>
       <c r="S23">
-        <v>0.01975760175518253</v>
+        <v>0.1228623411635543</v>
       </c>
       <c r="T23">
-        <v>0.01975760175518253</v>
+        <v>0.1456327363168735</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.93949277786609</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="H24">
-        <v>3.93949277786609</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="I24">
-        <v>0.08114099222553287</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="J24">
-        <v>0.08114099222553287</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.4645147047407</v>
+        <v>1.288047333333333</v>
       </c>
       <c r="N24">
-        <v>2.4645147047407</v>
+        <v>3.864142</v>
       </c>
       <c r="O24">
-        <v>0.271139044287756</v>
+        <v>0.1362694368124844</v>
       </c>
       <c r="P24">
-        <v>0.271139044287756</v>
+        <v>0.1536029703115132</v>
       </c>
       <c r="Q24">
-        <v>9.708937880270767</v>
+        <v>30.30697233795111</v>
       </c>
       <c r="R24">
-        <v>9.708937880270767</v>
+        <v>272.76275104156</v>
       </c>
       <c r="S24">
-        <v>0.02200049108459122</v>
+        <v>0.06258770480697837</v>
       </c>
       <c r="T24">
-        <v>0.02200049108459122</v>
+        <v>0.0741872458599772</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.93949277786609</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="H25">
-        <v>3.93949277786609</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="I25">
-        <v>0.08114099222553287</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="J25">
-        <v>0.08114099222553287</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.22022040128185</v>
+        <v>0.903683</v>
       </c>
       <c r="N25">
-        <v>1.22022040128185</v>
+        <v>1.807366</v>
       </c>
       <c r="O25">
-        <v>0.1342452503073187</v>
+        <v>0.09560547215942092</v>
       </c>
       <c r="P25">
-        <v>0.1342452503073187</v>
+        <v>0.0718443540739544</v>
       </c>
       <c r="Q25">
-        <v>4.807049458254711</v>
+        <v>21.26311275564667</v>
       </c>
       <c r="R25">
-        <v>4.807049458254711</v>
+        <v>127.57867653388</v>
       </c>
       <c r="S25">
-        <v>0.01089279281150086</v>
+        <v>0.04391099874933527</v>
       </c>
       <c r="T25">
-        <v>0.01089279281150086</v>
+        <v>0.03469942507313746</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.93949277786609</v>
+        <v>3.986849</v>
       </c>
       <c r="H26">
-        <v>3.93949277786609</v>
+        <v>11.960547</v>
       </c>
       <c r="I26">
-        <v>0.08114099222553287</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="J26">
-        <v>0.08114099222553287</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.903479754761555</v>
+        <v>2.296259</v>
       </c>
       <c r="N26">
-        <v>0.903479754761555</v>
+        <v>4.592518</v>
       </c>
       <c r="O26">
-        <v>0.0993983264811391</v>
+        <v>0.2429335573373846</v>
       </c>
       <c r="P26">
-        <v>0.0993983264811391</v>
+        <v>0.1825565432142737</v>
       </c>
       <c r="Q26">
-        <v>3.559251968831372</v>
+        <v>9.154837897890999</v>
       </c>
       <c r="R26">
-        <v>3.559251968831372</v>
+        <v>54.929027387346</v>
       </c>
       <c r="S26">
-        <v>0.008065278836237085</v>
+        <v>0.01890589021957303</v>
       </c>
       <c r="T26">
-        <v>0.008065278836237085</v>
+        <v>0.01493984513674874</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.49088395880867</v>
+        <v>3.986849</v>
       </c>
       <c r="H27">
-        <v>1.49088395880867</v>
+        <v>11.960547</v>
       </c>
       <c r="I27">
-        <v>0.03070745665293309</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="J27">
-        <v>0.03070745665293309</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>2.28800748622399</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="N27">
-        <v>2.28800748622399</v>
+        <v>0.619327</v>
       </c>
       <c r="O27">
-        <v>0.2517202116687207</v>
+        <v>0.02184064185342193</v>
       </c>
       <c r="P27">
-        <v>0.2517202116687207</v>
+        <v>0.02461878129585261</v>
       </c>
       <c r="Q27">
-        <v>3.411153658845496</v>
+        <v>0.8230544102076666</v>
       </c>
       <c r="R27">
-        <v>3.411153658845496</v>
+        <v>7.407489691868999</v>
       </c>
       <c r="S27">
-        <v>0.007729687488484385</v>
+        <v>0.001699710742852832</v>
       </c>
       <c r="T27">
-        <v>0.007729687488484385</v>
+        <v>0.002014722526728733</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.49088395880867</v>
+        <v>3.986849</v>
       </c>
       <c r="H28">
-        <v>1.49088395880867</v>
+        <v>11.960547</v>
       </c>
       <c r="I28">
-        <v>0.03070745665293309</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="J28">
-        <v>0.03070745665293309</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.21326423436801</v>
+        <v>2.229286333333333</v>
       </c>
       <c r="N28">
-        <v>2.21326423436801</v>
+        <v>6.687859</v>
       </c>
       <c r="O28">
-        <v>0.2434971672550654</v>
+        <v>0.2358481596720061</v>
       </c>
       <c r="P28">
-        <v>0.2434971672550654</v>
+        <v>0.2658481513941739</v>
       </c>
       <c r="Q28">
-        <v>3.299720143624219</v>
+        <v>8.887827988763664</v>
       </c>
       <c r="R28">
-        <v>3.299720143624219</v>
+        <v>79.99045189887299</v>
       </c>
       <c r="S28">
-        <v>0.007477178708596919</v>
+        <v>0.01835448121749092</v>
       </c>
       <c r="T28">
-        <v>0.007477178708596919</v>
+        <v>0.02175616464789279</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.49088395880867</v>
+        <v>3.986849</v>
       </c>
       <c r="H29">
-        <v>1.49088395880867</v>
+        <v>11.960547</v>
       </c>
       <c r="I29">
-        <v>0.03070745665293309</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="J29">
-        <v>0.03070745665293309</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.4645147047407</v>
+        <v>2.528492</v>
       </c>
       <c r="N29">
-        <v>2.4645147047407</v>
+        <v>7.585476</v>
       </c>
       <c r="O29">
-        <v>0.271139044287756</v>
+        <v>0.267502732165282</v>
       </c>
       <c r="P29">
-        <v>0.271139044287756</v>
+        <v>0.3015291997102321</v>
       </c>
       <c r="Q29">
-        <v>3.674305439545995</v>
+        <v>10.080715801708</v>
       </c>
       <c r="R29">
-        <v>3.674305439545995</v>
+        <v>90.726442215372</v>
       </c>
       <c r="S29">
-        <v>0.008325990449383975</v>
+        <v>0.02081794439262672</v>
       </c>
       <c r="T29">
-        <v>0.008325990449383975</v>
+        <v>0.02467618781864857</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.49088395880867</v>
+        <v>3.986849</v>
       </c>
       <c r="H30">
-        <v>1.49088395880867</v>
+        <v>11.960547</v>
       </c>
       <c r="I30">
-        <v>0.03070745665293309</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="J30">
-        <v>0.03070745665293309</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.22022040128185</v>
+        <v>1.288047333333333</v>
       </c>
       <c r="N30">
-        <v>1.22022040128185</v>
+        <v>3.864142</v>
       </c>
       <c r="O30">
-        <v>0.1342452503073187</v>
+        <v>0.1362694368124844</v>
       </c>
       <c r="P30">
-        <v>0.1342452503073187</v>
+        <v>0.1536029703115132</v>
       </c>
       <c r="Q30">
-        <v>1.819207022482189</v>
+        <v>5.135250222852666</v>
       </c>
       <c r="R30">
-        <v>1.819207022482189</v>
+        <v>46.21725200567401</v>
       </c>
       <c r="S30">
-        <v>0.004122330204674144</v>
+        <v>0.01060493676088533</v>
       </c>
       <c r="T30">
-        <v>0.004122330204674144</v>
+        <v>0.01257037709300357</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.49088395880867</v>
+        <v>3.986849</v>
       </c>
       <c r="H31">
-        <v>1.49088395880867</v>
+        <v>11.960547</v>
       </c>
       <c r="I31">
-        <v>0.03070745665293309</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="J31">
-        <v>0.03070745665293309</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.903479754761555</v>
+        <v>0.903683</v>
       </c>
       <c r="N31">
-        <v>0.903479754761555</v>
+        <v>1.807366</v>
       </c>
       <c r="O31">
-        <v>0.0993983264811391</v>
+        <v>0.09560547215942092</v>
       </c>
       <c r="P31">
-        <v>0.0993983264811391</v>
+        <v>0.0718443540739544</v>
       </c>
       <c r="Q31">
-        <v>1.346983473482393</v>
+        <v>3.602847664867</v>
       </c>
       <c r="R31">
-        <v>1.346983473482393</v>
+        <v>21.617085989202</v>
       </c>
       <c r="S31">
-        <v>0.00305226980179367</v>
+        <v>0.007440332990004357</v>
       </c>
       <c r="T31">
-        <v>0.00305226980179367</v>
+        <v>0.005879512752138375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.530533</v>
+      </c>
+      <c r="H32">
+        <v>3.061066</v>
+      </c>
+      <c r="I32">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="J32">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.296259</v>
+      </c>
+      <c r="N32">
+        <v>4.592518</v>
+      </c>
+      <c r="O32">
+        <v>0.2429335573373846</v>
+      </c>
+      <c r="P32">
+        <v>0.1825565432142737</v>
+      </c>
+      <c r="Q32">
+        <v>3.514500176047</v>
+      </c>
+      <c r="R32">
+        <v>14.058000704188</v>
+      </c>
+      <c r="S32">
+        <v>0.007257884328058016</v>
+      </c>
+      <c r="T32">
+        <v>0.003823558570805075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.530533</v>
+      </c>
+      <c r="H33">
+        <v>3.061066</v>
+      </c>
+      <c r="I33">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="J33">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.2064423333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.619327</v>
+      </c>
+      <c r="O33">
+        <v>0.02184064185342193</v>
+      </c>
+      <c r="P33">
+        <v>0.02461878129585261</v>
+      </c>
+      <c r="Q33">
+        <v>0.3159668037636666</v>
+      </c>
+      <c r="R33">
+        <v>1.895800822582</v>
+      </c>
+      <c r="S33">
+        <v>0.0006525111390952539</v>
+      </c>
+      <c r="T33">
+        <v>0.00051562847635676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.530533</v>
+      </c>
+      <c r="H34">
+        <v>3.061066</v>
+      </c>
+      <c r="I34">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="J34">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.229286333333333</v>
+      </c>
+      <c r="N34">
+        <v>6.687859</v>
+      </c>
+      <c r="O34">
+        <v>0.2358481596720061</v>
+      </c>
+      <c r="P34">
+        <v>0.2658481513941739</v>
+      </c>
+      <c r="Q34">
+        <v>3.411996299615667</v>
+      </c>
+      <c r="R34">
+        <v>20.471977797694</v>
+      </c>
+      <c r="S34">
+        <v>0.007046200947477577</v>
+      </c>
+      <c r="T34">
+        <v>0.005568061050557855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.530533</v>
+      </c>
+      <c r="H35">
+        <v>3.061066</v>
+      </c>
+      <c r="I35">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="J35">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.528492</v>
+      </c>
+      <c r="N35">
+        <v>7.585476</v>
+      </c>
+      <c r="O35">
+        <v>0.267502732165282</v>
+      </c>
+      <c r="P35">
+        <v>0.3015291997102321</v>
+      </c>
+      <c r="Q35">
+        <v>3.869940446236</v>
+      </c>
+      <c r="R35">
+        <v>23.219642677416</v>
+      </c>
+      <c r="S35">
+        <v>0.007991913133675282</v>
+      </c>
+      <c r="T35">
+        <v>0.006315383363426381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.530533</v>
+      </c>
+      <c r="H36">
+        <v>3.061066</v>
+      </c>
+      <c r="I36">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="J36">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.288047333333333</v>
+      </c>
+      <c r="N36">
+        <v>3.864142</v>
+      </c>
+      <c r="O36">
+        <v>0.1362694368124844</v>
+      </c>
+      <c r="P36">
+        <v>0.1536029703115132</v>
+      </c>
+      <c r="Q36">
+        <v>1.971398949228667</v>
+      </c>
+      <c r="R36">
+        <v>11.828393695372</v>
+      </c>
+      <c r="S36">
+        <v>0.004071186462152971</v>
+      </c>
+      <c r="T36">
+        <v>0.003217139979180891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.530533</v>
+      </c>
+      <c r="H37">
+        <v>3.061066</v>
+      </c>
+      <c r="I37">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="J37">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.903683</v>
+      </c>
+      <c r="N37">
+        <v>1.807366</v>
+      </c>
+      <c r="O37">
+        <v>0.09560547215942092</v>
+      </c>
+      <c r="P37">
+        <v>0.0718443540739544</v>
+      </c>
+      <c r="Q37">
+        <v>1.383116653039</v>
+      </c>
+      <c r="R37">
+        <v>5.532466612156001</v>
+      </c>
+      <c r="S37">
+        <v>0.002856309625017235</v>
+      </c>
+      <c r="T37">
+        <v>0.00150474527478862</v>
       </c>
     </row>
   </sheetData>
